--- a/Code/Results/Cases/Case_1_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2646293758751455</v>
+        <v>0.1422776694794123</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05448506402554898</v>
+        <v>0.1016491568980555</v>
       </c>
       <c r="E2">
-        <v>0.07010936780505972</v>
+        <v>0.1314834985687696</v>
       </c>
       <c r="F2">
-        <v>1.480379360715332</v>
+        <v>2.228370127467002</v>
       </c>
       <c r="G2">
-        <v>1.196539850375245</v>
+        <v>1.558939120223002</v>
       </c>
       <c r="H2">
-        <v>0.7751449492037921</v>
+        <v>1.393057684661827</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1018130343453123</v>
+        <v>0.1868716232151826</v>
       </c>
       <c r="K2">
-        <v>1.870170898570336</v>
+        <v>0.7288204472436064</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4632945687150638</v>
+        <v>0.2998801559184585</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2312673972377723</v>
+        <v>0.1330581801436637</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04912514024200476</v>
+        <v>0.1006582097491844</v>
       </c>
       <c r="E3">
-        <v>0.06580246327891714</v>
+        <v>0.1310989901654978</v>
       </c>
       <c r="F3">
-        <v>1.401588079194298</v>
+        <v>2.22221473876165</v>
       </c>
       <c r="G3">
-        <v>1.125838545972613</v>
+        <v>1.55099031119093</v>
       </c>
       <c r="H3">
-        <v>0.7508476011423255</v>
+        <v>1.395134461948487</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09777661164139317</v>
+        <v>0.1869436934763442</v>
       </c>
       <c r="K3">
-        <v>1.620675776377368</v>
+        <v>0.6597646867518847</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4027009061084001</v>
+        <v>0.2846789530053826</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2109778031827574</v>
+        <v>0.1274702943850912</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04587046026207986</v>
+        <v>0.1000821577253319</v>
       </c>
       <c r="E4">
-        <v>0.06324525313085871</v>
+        <v>0.1309151267613977</v>
       </c>
       <c r="F4">
-        <v>1.355925872665964</v>
+        <v>2.219604470070266</v>
       </c>
       <c r="G4">
-        <v>1.084873605274154</v>
+        <v>1.547038132775782</v>
       </c>
       <c r="H4">
-        <v>0.7372962958974085</v>
+        <v>1.397051250185015</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09545959062718623</v>
+        <v>0.1870697789643891</v>
       </c>
       <c r="K4">
-        <v>1.468421077084287</v>
+        <v>0.617574962434702</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3658481185725222</v>
+        <v>0.2754861735595426</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2027535678334118</v>
+        <v>0.1252116289615799</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04455254795407626</v>
+        <v>0.09985560076377453</v>
       </c>
       <c r="E5">
-        <v>0.06222382720111241</v>
+        <v>0.1308533523143609</v>
       </c>
       <c r="F5">
-        <v>1.337957523333074</v>
+        <v>2.218834446304101</v>
       </c>
       <c r="G5">
-        <v>1.068753081315009</v>
+        <v>1.545660552036907</v>
       </c>
       <c r="H5">
-        <v>0.7320986478132596</v>
+        <v>1.397993605551193</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09455371449673677</v>
+        <v>0.1871417353583773</v>
       </c>
       <c r="K5">
-        <v>1.406566531615567</v>
+        <v>0.6004356922380225</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3509070191105153</v>
+        <v>0.2717755601349978</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2013904515964384</v>
+        <v>0.1248376964037163</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04433419610489153</v>
+        <v>0.09981847702515267</v>
       </c>
       <c r="E6">
-        <v>0.06205543194856133</v>
+        <v>0.1308438895792534</v>
       </c>
       <c r="F6">
-        <v>1.335011286909847</v>
+        <v>2.218724312983284</v>
       </c>
       <c r="G6">
-        <v>1.066109711254086</v>
+        <v>1.545445861799152</v>
       </c>
       <c r="H6">
-        <v>0.7312546498467185</v>
+        <v>1.398159819165457</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0944055463698561</v>
+        <v>0.1871549263128038</v>
       </c>
       <c r="K6">
-        <v>1.396305881455163</v>
+        <v>0.5975929652956324</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3484303644934599</v>
+        <v>0.271161564115225</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2108667168209166</v>
+        <v>0.127439758413729</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0458526533792849</v>
+        <v>0.1000790690838897</v>
       </c>
       <c r="E7">
-        <v>0.06323139581528636</v>
+        <v>0.1309142403749775</v>
       </c>
       <c r="F7">
-        <v>1.355681012028697</v>
+        <v>2.219592896578206</v>
       </c>
       <c r="G7">
-        <v>1.084653931715593</v>
+        <v>1.547018611640183</v>
       </c>
       <c r="H7">
-        <v>0.7372249087303402</v>
+        <v>1.397063306365254</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09544722134072714</v>
+        <v>0.1870706660865658</v>
       </c>
       <c r="K7">
-        <v>1.46758617094585</v>
+        <v>0.6173435995756904</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3656463220877129</v>
+        <v>0.2754359869689154</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2530826006198623</v>
+        <v>0.1390837166955379</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05262895671949508</v>
+        <v>0.1013007804004644</v>
       </c>
       <c r="E8">
-        <v>0.06860544164560523</v>
+        <v>0.1313400912380125</v>
       </c>
       <c r="F8">
-        <v>1.452621301019434</v>
+        <v>2.226004892358503</v>
       </c>
       <c r="G8">
-        <v>1.171628217528848</v>
+        <v>1.556005372144995</v>
       </c>
       <c r="H8">
-        <v>0.7664714624791316</v>
+        <v>1.393640524311863</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1003863883592047</v>
+        <v>0.1868794865473831</v>
       </c>
       <c r="K8">
-        <v>1.783922515334865</v>
+        <v>0.7049664731369489</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4423214530339621</v>
+        <v>0.2946096126244342</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3376597055785311</v>
+        <v>0.1624926424440076</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06624251366428524</v>
+        <v>0.1039518931783974</v>
       </c>
       <c r="E9">
-        <v>0.07989878010234719</v>
+        <v>0.1325889382863217</v>
       </c>
       <c r="F9">
-        <v>1.666395724739431</v>
+        <v>2.247873270061987</v>
       </c>
       <c r="G9">
-        <v>1.363641330281837</v>
+        <v>1.58102027915163</v>
       </c>
       <c r="H9">
-        <v>0.8356102978388833</v>
+        <v>1.392025249998994</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1114617631815662</v>
+        <v>0.1871542048314794</v>
       </c>
       <c r="K9">
-        <v>2.413913379118583</v>
+        <v>0.8784602220005979</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5960560886021398</v>
+        <v>0.3333239896289228</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4012628326377126</v>
+        <v>0.1800391661567886</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0764997000799994</v>
+        <v>0.1060533761812295</v>
       </c>
       <c r="E10">
-        <v>0.08875104765135688</v>
+        <v>0.1337581149180416</v>
       </c>
       <c r="F10">
-        <v>1.841108621577817</v>
+        <v>2.269635669382993</v>
       </c>
       <c r="G10">
-        <v>1.520900122081372</v>
+        <v>1.603944273634738</v>
       </c>
       <c r="H10">
-        <v>0.8950124145380016</v>
+        <v>1.393955417394238</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206114614730254</v>
+        <v>0.1877527782347315</v>
       </c>
       <c r="K10">
-        <v>2.886076304052466</v>
+        <v>1.00694642831786</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.711954057194589</v>
+        <v>0.3624474370489139</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4306054088292086</v>
+        <v>0.1880966577398482</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08123553233379255</v>
+        <v>0.1070423852237425</v>
       </c>
       <c r="E11">
-        <v>0.09292195369991418</v>
+        <v>0.1343445438315989</v>
       </c>
       <c r="F11">
-        <v>1.925216922041287</v>
+        <v>2.280779437789647</v>
       </c>
       <c r="G11">
-        <v>1.596722437950064</v>
+        <v>1.615368743724957</v>
       </c>
       <c r="H11">
-        <v>0.924255408504564</v>
+        <v>1.395512566531039</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1250344244141317</v>
+        <v>0.1881114087213831</v>
       </c>
       <c r="K11">
-        <v>3.103747022307346</v>
+        <v>1.065621847957971</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7655402020988262</v>
+        <v>0.3758444316270868</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4417835585798713</v>
+        <v>0.1911585952388606</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08304019187781364</v>
+        <v>0.107421609821543</v>
       </c>
       <c r="E12">
-        <v>0.09452419456490446</v>
+        <v>0.1345744421928501</v>
       </c>
       <c r="F12">
-        <v>1.957805730027118</v>
+        <v>2.285178622957346</v>
       </c>
       <c r="G12">
-        <v>1.626121387052507</v>
+        <v>1.619838775055058</v>
       </c>
       <c r="H12">
-        <v>0.9356807891751373</v>
+        <v>1.396200027225063</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1267505183657605</v>
+        <v>0.188259637426043</v>
       </c>
       <c r="K12">
-        <v>3.186665870701461</v>
+        <v>1.087873144029061</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7859763386641845</v>
+        <v>0.3809388489171184</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4393730421868725</v>
+        <v>0.1904986763660759</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08265100195165331</v>
+        <v>0.1073397282767061</v>
       </c>
       <c r="E13">
-        <v>0.09417807321090166</v>
+        <v>0.1345245814559313</v>
       </c>
       <c r="F13">
-        <v>1.950753049085705</v>
+        <v>2.284223199642966</v>
       </c>
       <c r="G13">
-        <v>1.619758057828477</v>
+        <v>1.618869667657322</v>
       </c>
       <c r="H13">
-        <v>0.9332039373856844</v>
+        <v>1.396047618122793</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1263790307176151</v>
+        <v>0.1882271610704151</v>
       </c>
       <c r="K13">
-        <v>3.16878462964047</v>
+        <v>1.083079503441866</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7815682957884889</v>
+        <v>0.379840730762858</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4315236564639662</v>
+        <v>0.1883483505876882</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0813837685360923</v>
+        <v>0.1070734901359245</v>
       </c>
       <c r="E14">
-        <v>0.09305330111673626</v>
+        <v>0.134363300864198</v>
       </c>
       <c r="F14">
-        <v>1.927882772347317</v>
+        <v>2.281137766000711</v>
       </c>
       <c r="G14">
-        <v>1.599126915785661</v>
+        <v>1.615733609973347</v>
       </c>
       <c r="H14">
-        <v>0.9251881361148548</v>
+        <v>1.39556716338663</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1251747599126176</v>
+        <v>0.1881233545615686</v>
       </c>
       <c r="K14">
-        <v>3.1105584809319</v>
+        <v>1.067451832442316</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7672184828801463</v>
+        <v>0.3762631267664034</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4267246201751789</v>
+        <v>0.187032609251915</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0806090631434202</v>
+        <v>0.106911023516723</v>
       </c>
       <c r="E15">
-        <v>0.09236738205682826</v>
+        <v>0.1342655311347229</v>
       </c>
       <c r="F15">
-        <v>1.913972570974138</v>
+        <v>2.279271208640779</v>
       </c>
       <c r="G15">
-        <v>1.586581385787582</v>
+        <v>1.61383143243205</v>
       </c>
       <c r="H15">
-        <v>0.9203250426041336</v>
+        <v>1.395285612110939</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1244425930892064</v>
+        <v>0.1880613881769264</v>
       </c>
       <c r="K15">
-        <v>3.074959743047572</v>
+        <v>1.057883613851374</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7584482196385451</v>
+        <v>0.3740745075512066</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3993541219908252</v>
+        <v>0.179514099343919</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07619171215782927</v>
+        <v>0.1059894032487563</v>
       </c>
       <c r="E16">
-        <v>0.08848154182319234</v>
+        <v>0.1337208870274402</v>
       </c>
       <c r="F16">
-        <v>1.835711200921395</v>
+        <v>2.268932463749707</v>
       </c>
       <c r="G16">
-        <v>1.516037047732539</v>
+        <v>1.60321775353114</v>
       </c>
       <c r="H16">
-        <v>0.8931486964426085</v>
+        <v>1.393867331960507</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1203279670595521</v>
+        <v>0.1877310788827558</v>
       </c>
       <c r="K16">
-        <v>2.871915426178617</v>
+        <v>1.003116375651274</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7084711228304954</v>
+        <v>0.3615748932852512</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.382673441450109</v>
+        <v>0.1749209899058854</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07350054825984387</v>
+        <v>0.1054324498701718</v>
       </c>
       <c r="E17">
-        <v>0.08613601695746453</v>
+        <v>0.1334007294537578</v>
       </c>
       <c r="F17">
-        <v>1.788936099110586</v>
+        <v>2.262908869469214</v>
       </c>
       <c r="G17">
-        <v>1.473905831710226</v>
+        <v>1.596962172999724</v>
       </c>
       <c r="H17">
-        <v>0.8770677024417637</v>
+        <v>1.393171302890693</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1178730938465762</v>
+        <v>0.1875505633296584</v>
       </c>
       <c r="K17">
-        <v>2.748144927711706</v>
+        <v>0.9695761695142266</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.678046627515954</v>
+        <v>0.3539447699056311</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3731171601579319</v>
+        <v>0.1722862671797287</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07195914776804102</v>
+        <v>0.1051152167975786</v>
       </c>
       <c r="E18">
-        <v>0.08480034664983549</v>
+        <v>0.1332217200992964</v>
       </c>
       <c r="F18">
-        <v>1.762463379505022</v>
+        <v>2.259561318897724</v>
       </c>
       <c r="G18">
-        <v>1.450071735323831</v>
+        <v>1.593457863898607</v>
       </c>
       <c r="H18">
-        <v>0.8680252443431868</v>
+        <v>1.392834877142832</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1164854131565534</v>
+        <v>0.1874548614605658</v>
       </c>
       <c r="K18">
-        <v>2.677221555858239</v>
+        <v>0.9503060610770717</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6606272349771487</v>
+        <v>0.3495701168195922</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3698878642198906</v>
+        <v>0.1713954203941057</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07143833334126271</v>
+        <v>0.1050083428649629</v>
       </c>
       <c r="E19">
-        <v>0.08435035433138083</v>
+        <v>0.1331619933471799</v>
       </c>
       <c r="F19">
-        <v>1.753572100674717</v>
+        <v>2.258447988954558</v>
       </c>
       <c r="G19">
-        <v>1.442068350980833</v>
+        <v>1.592287446674618</v>
       </c>
       <c r="H19">
-        <v>0.8649982242210115</v>
+        <v>1.392731941614272</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1160196336382171</v>
+        <v>0.1874238538413593</v>
       </c>
       <c r="K19">
-        <v>2.653251600449551</v>
+        <v>0.943785208511116</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.654742484232905</v>
+        <v>0.3480913407349604</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3844451397352771</v>
+        <v>0.175409198980546</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07378634720209476</v>
+        <v>0.1054914167550791</v>
       </c>
       <c r="E20">
-        <v>0.08638429918092783</v>
+        <v>0.1334342792490339</v>
       </c>
       <c r="F20">
-        <v>1.793870267126266</v>
+        <v>2.263537973002641</v>
       </c>
       <c r="G20">
-        <v>1.478349021875658</v>
+        <v>1.597618384794657</v>
       </c>
       <c r="H20">
-        <v>0.8787579135092756</v>
+        <v>1.39323878067421</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1181318787431493</v>
+        <v>0.1875689384605082</v>
       </c>
       <c r="K20">
-        <v>2.761292428080566</v>
+        <v>0.9731443767427663</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6812769511808696</v>
+        <v>0.3547555621810687</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4338273333693792</v>
+        <v>0.1889796628205005</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08175566823951641</v>
+        <v>0.1071515632796931</v>
       </c>
       <c r="E21">
-        <v>0.09338303713650475</v>
+        <v>0.1344104604923899</v>
       </c>
       <c r="F21">
-        <v>1.93457965851934</v>
+        <v>2.282039163759379</v>
       </c>
       <c r="G21">
-        <v>1.605167548614048</v>
+        <v>1.6166508379672</v>
       </c>
       <c r="H21">
-        <v>0.9275327524384238</v>
+        <v>1.39570562908446</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1255273334639426</v>
+        <v>0.1881535078246017</v>
       </c>
       <c r="K21">
-        <v>3.127646912839623</v>
+        <v>1.072041187528953</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7714292867988561</v>
+        <v>0.3773133794159591</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4664946922745372</v>
+        <v>0.197911294872938</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08703064073933575</v>
+        <v>0.1082639897035094</v>
       </c>
       <c r="E22">
-        <v>0.09809119054571624</v>
+        <v>0.1350940860689249</v>
       </c>
       <c r="F22">
-        <v>2.030886979557962</v>
+        <v>2.29517594300853</v>
       </c>
       <c r="G22">
-        <v>1.692091263631909</v>
+        <v>1.62992828015274</v>
       </c>
       <c r="H22">
-        <v>0.9614772836038412</v>
+        <v>1.397887992218358</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.130602909190884</v>
+        <v>0.1886079730349834</v>
       </c>
       <c r="K22">
-        <v>3.369988337848099</v>
+        <v>1.136863425496756</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8312005003849947</v>
+        <v>0.3921801278104837</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4490207388430889</v>
+        <v>0.1931386294456274</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08420874651010024</v>
+        <v>0.107667771137578</v>
       </c>
       <c r="E23">
-        <v>0.09556534400252303</v>
+        <v>0.1347250518379219</v>
       </c>
       <c r="F23">
-        <v>1.979062304191615</v>
+        <v>2.288068828319865</v>
       </c>
       <c r="G23">
-        <v>1.645303546516885</v>
+        <v>1.622764933730281</v>
       </c>
       <c r="H23">
-        <v>0.94315973087825</v>
+        <v>1.396671007430768</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1278704905914054</v>
+        <v>0.1883587876817074</v>
       </c>
       <c r="K23">
-        <v>3.240352454147057</v>
+        <v>1.102249543233086</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.799214413363849</v>
+        <v>0.3842341592184582</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3836440506742775</v>
+        <v>0.175188461219193</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07365711957416465</v>
+        <v>0.1054647485833513</v>
       </c>
       <c r="E24">
-        <v>0.08627201106556726</v>
+        <v>0.1334190956448289</v>
       </c>
       <c r="F24">
-        <v>1.791638230383924</v>
+        <v>2.263253195554682</v>
       </c>
       <c r="G24">
-        <v>1.476339053249347</v>
+        <v>1.597321424567326</v>
       </c>
       <c r="H24">
-        <v>0.8779931400665646</v>
+        <v>1.393208075448939</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1180148086771169</v>
+        <v>0.1875606058995345</v>
       </c>
       <c r="K24">
-        <v>2.75534772025091</v>
+        <v>0.9715311509751245</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6798162989068643</v>
+        <v>0.3543889655879795</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3145507471287061</v>
+        <v>0.1560986075424751</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06251928371818138</v>
+        <v>0.1032075646217763</v>
       </c>
       <c r="E25">
-        <v>0.07675349481692706</v>
+        <v>0.1322068583109477</v>
       </c>
       <c r="F25">
-        <v>1.605713755392586</v>
+        <v>2.240959211369599</v>
       </c>
       <c r="G25">
-        <v>1.309095123897777</v>
+        <v>1.573457678323507</v>
       </c>
       <c r="H25">
-        <v>0.8155053964860883</v>
+        <v>1.391915573598965</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1083005619640858</v>
+        <v>0.1870102670007228</v>
       </c>
       <c r="K25">
-        <v>2.242115783215297</v>
+        <v>0.8313467902893024</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5540181730827527</v>
+        <v>0.3227313426600773</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422776694794123</v>
+        <v>0.2646293758750602</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1016491568980555</v>
+        <v>0.05448506402593978</v>
       </c>
       <c r="E2">
-        <v>0.1314834985687696</v>
+        <v>0.0701093678050384</v>
       </c>
       <c r="F2">
-        <v>2.228370127467002</v>
+        <v>1.480379360715332</v>
       </c>
       <c r="G2">
-        <v>1.558939120223002</v>
+        <v>1.196539850375245</v>
       </c>
       <c r="H2">
-        <v>1.393057684661827</v>
+        <v>0.7751449492037779</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1868716232151826</v>
+        <v>0.1018130343453265</v>
       </c>
       <c r="K2">
-        <v>0.7288204472436064</v>
+        <v>1.870170898570279</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2998801559184585</v>
+        <v>0.4632945687150638</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330581801436637</v>
+        <v>0.2312673972378008</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1006582097491844</v>
+        <v>0.04912514024208292</v>
       </c>
       <c r="E3">
-        <v>0.1310989901654978</v>
+        <v>0.06580246327891714</v>
       </c>
       <c r="F3">
-        <v>2.22221473876165</v>
+        <v>1.401588079194269</v>
       </c>
       <c r="G3">
-        <v>1.55099031119093</v>
+        <v>1.125838545972627</v>
       </c>
       <c r="H3">
-        <v>1.395134461948487</v>
+        <v>0.7508476011423255</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1869436934763442</v>
+        <v>0.09777661164137186</v>
       </c>
       <c r="K3">
-        <v>0.6597646867518847</v>
+        <v>1.620675776377368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2846789530053826</v>
+        <v>0.402700906108393</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1274702943850912</v>
+        <v>0.2109778031828569</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1000821577253319</v>
+        <v>0.04587046026200881</v>
       </c>
       <c r="E4">
-        <v>0.1309151267613977</v>
+        <v>0.0632452531308445</v>
       </c>
       <c r="F4">
-        <v>2.219604470070266</v>
+        <v>1.355925872665935</v>
       </c>
       <c r="G4">
-        <v>1.547038132775782</v>
+        <v>1.084873605274183</v>
       </c>
       <c r="H4">
-        <v>1.397051250185015</v>
+        <v>0.7372962958974085</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1870697789643891</v>
+        <v>0.09545959062717202</v>
       </c>
       <c r="K4">
-        <v>0.617574962434702</v>
+        <v>1.468421077084315</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2754861735595426</v>
+        <v>0.3658481185725151</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1252116289615799</v>
+        <v>0.2027535678332981</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09985560076377453</v>
+        <v>0.04455254795400521</v>
       </c>
       <c r="E5">
-        <v>0.1308533523143609</v>
+        <v>0.06222382720110531</v>
       </c>
       <c r="F5">
-        <v>2.218834446304101</v>
+        <v>1.337957523333074</v>
       </c>
       <c r="G5">
-        <v>1.545660552036907</v>
+        <v>1.068753081315052</v>
       </c>
       <c r="H5">
-        <v>1.397993605551193</v>
+        <v>0.7320986478132454</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1871417353583773</v>
+        <v>0.09455371449673322</v>
       </c>
       <c r="K5">
-        <v>0.6004356922380225</v>
+        <v>1.406566531615539</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2717755601349978</v>
+        <v>0.3509070191105081</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1248376964037163</v>
+        <v>0.2013904515964242</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09981847702515267</v>
+        <v>0.04433419610488443</v>
       </c>
       <c r="E6">
-        <v>0.1308438895792534</v>
+        <v>0.06205543194856489</v>
       </c>
       <c r="F6">
-        <v>2.218724312983284</v>
+        <v>1.335011286909847</v>
       </c>
       <c r="G6">
-        <v>1.545445861799152</v>
+        <v>1.066109711254043</v>
       </c>
       <c r="H6">
-        <v>1.398159819165457</v>
+        <v>0.7312546498467185</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1871549263128038</v>
+        <v>0.09440554636983123</v>
       </c>
       <c r="K6">
-        <v>0.5975929652956324</v>
+        <v>1.396305881455248</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.271161564115225</v>
+        <v>0.3484303644934599</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127439758413729</v>
+        <v>0.2108667168209593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1000790690838897</v>
+        <v>0.04585265337934885</v>
       </c>
       <c r="E7">
-        <v>0.1309142403749775</v>
+        <v>0.06323139581528991</v>
       </c>
       <c r="F7">
-        <v>2.219592896578206</v>
+        <v>1.355681012028683</v>
       </c>
       <c r="G7">
-        <v>1.547018611640183</v>
+        <v>1.08465393171555</v>
       </c>
       <c r="H7">
-        <v>1.397063306365254</v>
+        <v>0.7372249087302265</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1870706660865658</v>
+        <v>0.09544722134073069</v>
       </c>
       <c r="K7">
-        <v>0.6173435995756904</v>
+        <v>1.46758617094585</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2754359869689154</v>
+        <v>0.3656463220877129</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390837166955379</v>
+        <v>0.2530826006197771</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1013007804004644</v>
+        <v>0.05262895671950218</v>
       </c>
       <c r="E8">
-        <v>0.1313400912380125</v>
+        <v>0.06860544164558746</v>
       </c>
       <c r="F8">
-        <v>2.226004892358503</v>
+        <v>1.452621301019434</v>
       </c>
       <c r="G8">
-        <v>1.556005372144995</v>
+        <v>1.171628217528848</v>
       </c>
       <c r="H8">
-        <v>1.393640524311863</v>
+        <v>0.7664714624790179</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1868794865473831</v>
+        <v>0.1003863883592331</v>
       </c>
       <c r="K8">
-        <v>0.7049664731369489</v>
+        <v>1.783922515334837</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2946096126244342</v>
+        <v>0.442321453033955</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1624926424440076</v>
+        <v>0.3376597055786164</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1039518931783974</v>
+        <v>0.06624251366425682</v>
       </c>
       <c r="E9">
-        <v>0.1325889382863217</v>
+        <v>0.0798987801023614</v>
       </c>
       <c r="F9">
-        <v>2.247873270061987</v>
+        <v>1.666395724739417</v>
       </c>
       <c r="G9">
-        <v>1.58102027915163</v>
+        <v>1.363641330281894</v>
       </c>
       <c r="H9">
-        <v>1.392025249998994</v>
+        <v>0.8356102978388549</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1871542048314794</v>
+        <v>0.1114617631815804</v>
       </c>
       <c r="K9">
-        <v>0.8784602220005979</v>
+        <v>2.413913379118583</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3333239896289228</v>
+        <v>0.5960560886021398</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1800391661567886</v>
+        <v>0.4012628326375989</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1060533761812295</v>
+        <v>0.07649970008000651</v>
       </c>
       <c r="E10">
-        <v>0.1337581149180416</v>
+        <v>0.08875104765135688</v>
       </c>
       <c r="F10">
-        <v>2.269635669382993</v>
+        <v>1.841108621577831</v>
       </c>
       <c r="G10">
-        <v>1.603944273634738</v>
+        <v>1.520900122081343</v>
       </c>
       <c r="H10">
-        <v>1.393955417394238</v>
+        <v>0.8950124145380016</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1877527782347315</v>
+        <v>0.1206114614730254</v>
       </c>
       <c r="K10">
-        <v>1.00694642831786</v>
+        <v>2.886076304052608</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3624474370489139</v>
+        <v>0.7119540571945748</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1880966577398482</v>
+        <v>0.4306054088293365</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1070423852237425</v>
+        <v>0.08123553233381386</v>
       </c>
       <c r="E11">
-        <v>0.1343445438315989</v>
+        <v>0.0929219536998751</v>
       </c>
       <c r="F11">
-        <v>2.280779437789647</v>
+        <v>1.925216922041258</v>
       </c>
       <c r="G11">
-        <v>1.615368743724957</v>
+        <v>1.596722437950007</v>
       </c>
       <c r="H11">
-        <v>1.395512566531039</v>
+        <v>0.9242554085046493</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1881114087213831</v>
+        <v>0.1250344244141459</v>
       </c>
       <c r="K11">
-        <v>1.065621847957971</v>
+        <v>3.103747022307232</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3758444316270868</v>
+        <v>0.7655402020988333</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1911585952388606</v>
+        <v>0.4417835585801129</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.107421609821543</v>
+        <v>0.08304019187772838</v>
       </c>
       <c r="E12">
-        <v>0.1345744421928501</v>
+        <v>0.09452419456492578</v>
       </c>
       <c r="F12">
-        <v>2.285178622957346</v>
+        <v>1.957805730027118</v>
       </c>
       <c r="G12">
-        <v>1.619838775055058</v>
+        <v>1.626121387052507</v>
       </c>
       <c r="H12">
-        <v>1.396200027225063</v>
+        <v>0.9356807891749952</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.188259637426043</v>
+        <v>0.1267505183657605</v>
       </c>
       <c r="K12">
-        <v>1.087873144029061</v>
+        <v>3.186665870701518</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3809388489171184</v>
+        <v>0.7859763386641916</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1904986763660759</v>
+        <v>0.439373042187043</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1073397282767061</v>
+        <v>0.08265100195165331</v>
       </c>
       <c r="E13">
-        <v>0.1345245814559313</v>
+        <v>0.09417807321089811</v>
       </c>
       <c r="F13">
-        <v>2.284223199642966</v>
+        <v>1.950753049085719</v>
       </c>
       <c r="G13">
-        <v>1.618869667657322</v>
+        <v>1.619758057828449</v>
       </c>
       <c r="H13">
-        <v>1.396047618122793</v>
+        <v>0.9332039373856844</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1882271610704151</v>
+        <v>0.1263790307177075</v>
       </c>
       <c r="K13">
-        <v>1.083079503441866</v>
+        <v>3.168784629640299</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.379840730762858</v>
+        <v>0.7815682957884675</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1883483505876882</v>
+        <v>0.4315236564638099</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1070734901359245</v>
+        <v>0.08138376853609941</v>
       </c>
       <c r="E14">
-        <v>0.134363300864198</v>
+        <v>0.09305330111672205</v>
       </c>
       <c r="F14">
-        <v>2.281137766000711</v>
+        <v>1.927882772347289</v>
       </c>
       <c r="G14">
-        <v>1.615733609973347</v>
+        <v>1.599126915785632</v>
       </c>
       <c r="H14">
-        <v>1.39556716338663</v>
+        <v>0.9251881361147127</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1881233545615686</v>
+        <v>0.1251747599125821</v>
       </c>
       <c r="K14">
-        <v>1.067451832442316</v>
+        <v>3.110558480931957</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3762631267664034</v>
+        <v>0.7672184828801605</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.187032609251915</v>
+        <v>0.4267246201750794</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.106911023516723</v>
+        <v>0.08060906314363336</v>
       </c>
       <c r="E15">
-        <v>0.1342655311347229</v>
+        <v>0.09236738205684247</v>
       </c>
       <c r="F15">
-        <v>2.279271208640779</v>
+        <v>1.913972570974138</v>
       </c>
       <c r="G15">
-        <v>1.61383143243205</v>
+        <v>1.586581385787554</v>
       </c>
       <c r="H15">
-        <v>1.395285612110939</v>
+        <v>0.9203250426040483</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1880613881769264</v>
+        <v>0.1244425930891992</v>
       </c>
       <c r="K15">
-        <v>1.057883613851374</v>
+        <v>3.074959743047543</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3740745075512066</v>
+        <v>0.7584482196385665</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.179514099343919</v>
+        <v>0.3993541219908252</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1059894032487563</v>
+        <v>0.07619171215792875</v>
       </c>
       <c r="E16">
-        <v>0.1337208870274402</v>
+        <v>0.08848154182318879</v>
       </c>
       <c r="F16">
-        <v>2.268932463749707</v>
+        <v>1.835711200921395</v>
       </c>
       <c r="G16">
-        <v>1.60321775353114</v>
+        <v>1.51603704773251</v>
       </c>
       <c r="H16">
-        <v>1.393867331960507</v>
+        <v>0.8931486964426369</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1877310788827558</v>
+        <v>0.1203279670596586</v>
       </c>
       <c r="K16">
-        <v>1.003116375651274</v>
+        <v>2.871915426178617</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3615748932852512</v>
+        <v>0.7084711228304741</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1749209899058854</v>
+        <v>0.3826734414500947</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1054324498701718</v>
+        <v>0.07350054825982966</v>
       </c>
       <c r="E17">
-        <v>0.1334007294537578</v>
+        <v>0.08613601695745032</v>
       </c>
       <c r="F17">
-        <v>2.262908869469214</v>
+        <v>1.7889360991106</v>
       </c>
       <c r="G17">
-        <v>1.596962172999724</v>
+        <v>1.473905831710113</v>
       </c>
       <c r="H17">
-        <v>1.393171302890693</v>
+        <v>0.87706770244165</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1875505633296584</v>
+        <v>0.117873093846633</v>
       </c>
       <c r="K17">
-        <v>0.9695761695142266</v>
+        <v>2.748144927711735</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3539447699056311</v>
+        <v>0.678046627515954</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1722862671797287</v>
+        <v>0.3731171601580172</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1051152167975786</v>
+        <v>0.07195914776804102</v>
       </c>
       <c r="E18">
-        <v>0.1332217200992964</v>
+        <v>0.08480034664981773</v>
       </c>
       <c r="F18">
-        <v>2.259561318897724</v>
+        <v>1.762463379505036</v>
       </c>
       <c r="G18">
-        <v>1.593457863898607</v>
+        <v>1.45007173532386</v>
       </c>
       <c r="H18">
-        <v>1.392834877142832</v>
+        <v>0.8680252443433005</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1874548614605658</v>
+        <v>0.1164854131565463</v>
       </c>
       <c r="K18">
-        <v>0.9503060610770717</v>
+        <v>2.67722155585821</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3495701168195922</v>
+        <v>0.6606272349771558</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1713954203941057</v>
+        <v>0.3698878642198906</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1050083428649629</v>
+        <v>0.07143833334117033</v>
       </c>
       <c r="E19">
-        <v>0.1331619933471799</v>
+        <v>0.0843503543314057</v>
       </c>
       <c r="F19">
-        <v>2.258447988954558</v>
+        <v>1.753572100674717</v>
       </c>
       <c r="G19">
-        <v>1.592287446674618</v>
+        <v>1.442068350980776</v>
       </c>
       <c r="H19">
-        <v>1.392731941614272</v>
+        <v>0.8649982242211252</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1874238538413593</v>
+        <v>0.1160196336382668</v>
       </c>
       <c r="K19">
-        <v>0.943785208511116</v>
+        <v>2.653251600449522</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3480913407349604</v>
+        <v>0.6547424842329121</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.175409198980546</v>
+        <v>0.3844451397351065</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1054914167550791</v>
+        <v>0.07378634720209476</v>
       </c>
       <c r="E20">
-        <v>0.1334342792490339</v>
+        <v>0.08638429918093138</v>
       </c>
       <c r="F20">
-        <v>2.263537973002641</v>
+        <v>1.793870267126266</v>
       </c>
       <c r="G20">
-        <v>1.597618384794657</v>
+        <v>1.478349021875715</v>
       </c>
       <c r="H20">
-        <v>1.39323878067421</v>
+        <v>0.8787579135092756</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1875689384605082</v>
+        <v>0.1181318787430357</v>
       </c>
       <c r="K20">
-        <v>0.9731443767427663</v>
+        <v>2.761292428080537</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3547555621810687</v>
+        <v>0.6812769511808696</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1889796628205005</v>
+        <v>0.433827333369436</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1071515632796931</v>
+        <v>0.08175566823929614</v>
       </c>
       <c r="E21">
-        <v>0.1344104604923899</v>
+        <v>0.09338303713647989</v>
       </c>
       <c r="F21">
-        <v>2.282039163759379</v>
+        <v>1.934579658519297</v>
       </c>
       <c r="G21">
-        <v>1.6166508379672</v>
+        <v>1.605167548614048</v>
       </c>
       <c r="H21">
-        <v>1.39570562908446</v>
+        <v>0.9275327524385375</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1881535078246017</v>
+        <v>0.1255273334638076</v>
       </c>
       <c r="K21">
-        <v>1.072041187528953</v>
+        <v>3.127646912839566</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3773133794159591</v>
+        <v>0.7714292867988419</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.197911294872938</v>
+        <v>0.4664946922745514</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1082639897035094</v>
+        <v>0.08703064073924338</v>
       </c>
       <c r="E22">
-        <v>0.1350940860689249</v>
+        <v>0.0980911905457198</v>
       </c>
       <c r="F22">
-        <v>2.29517594300853</v>
+        <v>2.030886979557977</v>
       </c>
       <c r="G22">
-        <v>1.62992828015274</v>
+        <v>1.692091263631937</v>
       </c>
       <c r="H22">
-        <v>1.397887992218358</v>
+        <v>0.9614772836038412</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1886079730349834</v>
+        <v>0.1306029091909551</v>
       </c>
       <c r="K22">
-        <v>1.136863425496756</v>
+        <v>3.369988337848099</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3921801278104837</v>
+        <v>0.8312005003850089</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1931386294456274</v>
+        <v>0.4490207388432026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.107667771137578</v>
+        <v>0.08420874650990129</v>
       </c>
       <c r="E23">
-        <v>0.1347250518379219</v>
+        <v>0.09556534400252303</v>
       </c>
       <c r="F23">
-        <v>2.288068828319865</v>
+        <v>1.979062304191601</v>
       </c>
       <c r="G23">
-        <v>1.622764933730281</v>
+        <v>1.645303546516828</v>
       </c>
       <c r="H23">
-        <v>1.396671007430768</v>
+        <v>0.94315973087825</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1883587876817074</v>
+        <v>0.127870490591377</v>
       </c>
       <c r="K23">
-        <v>1.102249543233086</v>
+        <v>3.240352454147001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3842341592184582</v>
+        <v>0.7992144133638348</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.175188461219193</v>
+        <v>0.3836440506742065</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1054647485833513</v>
+        <v>0.07365711957403676</v>
       </c>
       <c r="E24">
-        <v>0.1334190956448289</v>
+        <v>0.0862720110655637</v>
       </c>
       <c r="F24">
-        <v>2.263253195554682</v>
+        <v>1.791638230383924</v>
       </c>
       <c r="G24">
-        <v>1.597321424567326</v>
+        <v>1.476339053249291</v>
       </c>
       <c r="H24">
-        <v>1.393208075448939</v>
+        <v>0.8779931400665646</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1875606058995345</v>
+        <v>0.1180148086771027</v>
       </c>
       <c r="K24">
-        <v>0.9715311509751245</v>
+        <v>2.755347720250967</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3543889655879795</v>
+        <v>0.6798162989068857</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1560986075424751</v>
+        <v>0.3145507471285782</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1032075646217763</v>
+        <v>0.06251928371805349</v>
       </c>
       <c r="E25">
-        <v>0.1322068583109477</v>
+        <v>0.07675349481694838</v>
       </c>
       <c r="F25">
-        <v>2.240959211369599</v>
+        <v>1.6057137553926</v>
       </c>
       <c r="G25">
-        <v>1.573457678323507</v>
+        <v>1.309095123897777</v>
       </c>
       <c r="H25">
-        <v>1.391915573598965</v>
+        <v>0.8155053964859462</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1870102670007228</v>
+        <v>0.1083005619641</v>
       </c>
       <c r="K25">
-        <v>0.8313467902893024</v>
+        <v>2.242115783215326</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3227313426600773</v>
+        <v>0.5540181730827598</v>
       </c>
       <c r="N25">
         <v>0</v>
